--- a/app/Licenciatura_em_Animacao_Turistica.xlsx
+++ b/app/Licenciatura_em_Animacao_Turistica.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Carolina Rafael Cuamba</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Rute Guida Madeira</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>0110102268651A</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Gracinda Eduardo Sique</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Esperanca   J.   Nhabinde</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
     <t>Eufasia Pedro Mahumane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090104498830M</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>Safira Fuele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110204047972B</t>
   </si>
   <si>
@@ -446,9 +428,6 @@
     <t>Caracadzai Zuca Masichine</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>080100392193A</t>
   </si>
   <si>
@@ -473,9 +452,6 @@
     <t>Elsa Alberto Matha</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110200359848 J</t>
   </si>
   <si>
@@ -515,9 +491,6 @@
     <t>Lucia Guilherme Manguele</t>
   </si>
   <si>
-    <t>Distrito de Bilene</t>
-  </si>
-  <si>
     <t>110102343505Q</t>
   </si>
   <si>
@@ -566,9 +539,6 @@
     <t>Mariana Oscar Samo Gudo</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110504343386C</t>
   </si>
   <si>
@@ -722,9 +692,6 @@
     <t>Luisa JosÉ Fernando</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>020901022557A</t>
   </si>
   <si>
@@ -747,9 +714,6 @@
   </si>
   <si>
     <t>Leonor Antonio Novela</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t>110202913696I</t>
@@ -2171,7 +2135,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2187,7 +2151,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2203,7 +2167,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2219,7 +2183,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2235,7 +2199,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2250,9 +2214,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2260,7 +2222,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2271,7 +2233,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2280,7 +2242,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2292,7 +2254,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2300,7 +2262,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2396,7 +2358,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2439,7 +2401,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2766,7 +2728,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2782,7 +2744,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2798,7 +2760,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2814,7 +2776,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2830,7 +2792,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2845,9 +2807,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2855,7 +2815,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2866,7 +2826,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2875,7 +2835,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2887,7 +2847,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2895,7 +2855,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2991,7 +2951,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3034,7 +2994,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3361,7 +3321,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3377,7 +3337,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3393,7 +3353,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3409,7 +3369,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3425,7 +3385,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3440,9 +3400,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3450,7 +3408,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3461,7 +3419,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3470,7 +3428,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3482,7 +3440,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3490,7 +3448,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3586,7 +3544,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3629,7 +3587,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3956,7 +3914,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3972,7 +3930,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3988,7 +3946,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4004,7 +3962,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4020,7 +3978,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4035,9 +3993,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4045,7 +4001,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4056,7 +4012,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4065,7 +4021,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4077,7 +4033,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4181,7 +4137,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4224,7 +4180,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4551,7 +4507,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4567,7 +4523,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4583,7 +4539,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4599,7 +4555,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4615,7 +4571,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4630,9 +4586,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4640,7 +4594,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4651,7 +4605,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4660,7 +4614,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4672,7 +4626,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4680,7 +4634,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4776,7 +4730,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4819,7 +4773,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5146,7 +5100,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5162,7 +5116,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5178,7 +5132,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5194,7 +5148,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5210,7 +5164,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5225,9 +5179,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5235,7 +5187,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5246,7 +5198,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5255,7 +5207,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5267,7 +5219,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5275,7 +5227,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5371,7 +5323,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5414,7 +5366,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5741,7 +5693,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5757,7 +5709,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5773,7 +5725,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5789,7 +5741,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5805,7 +5757,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5820,9 +5772,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5830,7 +5780,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5841,7 +5791,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5850,7 +5800,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5862,7 +5812,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5870,7 +5820,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5966,7 +5916,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6009,7 +5959,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6336,7 +6286,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6352,7 +6302,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6368,7 +6318,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6384,7 +6334,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6400,7 +6350,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6415,9 +6365,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6425,7 +6373,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6436,7 +6384,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6445,7 +6393,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6457,7 +6405,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6465,7 +6413,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6561,7 +6509,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6604,7 +6552,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6931,7 +6879,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6947,7 +6895,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6963,7 +6911,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6979,7 +6927,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6995,7 +6943,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7010,9 +6958,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7020,7 +6966,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7031,7 +6977,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7040,7 +6986,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7052,7 +6998,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7060,7 +7006,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7156,7 +7102,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7199,7 +7145,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7526,7 +7472,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7542,7 +7488,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7558,7 +7504,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7574,7 +7520,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7590,7 +7536,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7605,9 +7551,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7615,7 +7559,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7626,7 +7570,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7635,7 +7579,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7647,7 +7591,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7655,7 +7599,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7751,7 +7695,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7794,7 +7738,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8200,9 +8144,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8210,7 +8152,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8221,7 +8163,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8230,7 +8172,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8242,7 +8184,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8250,7 +8192,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8346,7 +8288,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8389,7 +8331,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8716,7 +8658,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8732,7 +8674,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8748,7 +8690,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8764,7 +8706,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8780,7 +8722,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8795,9 +8737,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8805,7 +8745,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8816,7 +8756,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8825,7 +8765,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8837,7 +8777,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8845,7 +8785,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8941,7 +8881,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8984,7 +8924,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9311,7 +9251,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9327,7 +9267,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9343,7 +9283,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9359,7 +9299,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9375,7 +9315,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9390,9 +9330,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9400,7 +9338,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9411,7 +9349,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9420,7 +9358,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9432,7 +9370,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9440,7 +9378,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9536,7 +9474,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9579,7 +9517,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9906,7 +9844,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9922,7 +9860,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9938,7 +9876,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9954,7 +9892,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9970,7 +9908,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9985,9 +9923,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9995,7 +9931,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10006,7 +9942,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10015,7 +9951,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10027,7 +9963,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10035,7 +9971,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10131,7 +10067,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10174,7 +10110,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10501,7 +10437,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10517,7 +10453,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10533,7 +10469,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10549,7 +10485,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10565,7 +10501,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10580,9 +10516,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>224</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10590,7 +10524,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10601,7 +10535,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10610,7 +10544,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10622,7 +10556,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10630,7 +10564,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10726,7 +10660,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10769,7 +10703,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11096,7 +11030,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11112,7 +11046,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11128,7 +11062,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11144,7 +11078,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11160,7 +11094,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11175,9 +11109,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11185,7 +11117,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11196,7 +11128,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11205,7 +11137,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11217,7 +11149,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11225,7 +11157,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11321,7 +11253,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11364,7 +11296,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11691,7 +11623,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11707,7 +11639,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11723,7 +11655,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11739,7 +11671,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11755,7 +11687,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11770,9 +11702,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11780,7 +11710,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11791,7 +11721,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11800,7 +11730,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11812,7 +11742,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11820,7 +11750,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11916,7 +11846,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11959,7 +11889,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12286,7 +12216,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12302,7 +12232,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12318,7 +12248,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12334,7 +12264,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12350,7 +12280,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12365,9 +12295,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12375,7 +12303,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12386,7 +12314,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12395,7 +12323,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12407,7 +12335,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12415,7 +12343,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12511,7 +12439,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12554,7 +12482,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12881,7 +12809,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12897,7 +12825,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12913,7 +12841,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12929,7 +12857,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12945,7 +12873,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12960,9 +12888,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12970,7 +12896,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12981,7 +12907,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12990,7 +12916,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13002,7 +12928,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13010,7 +12936,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13106,7 +13032,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13149,7 +13075,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13476,7 +13402,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13492,7 +13418,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13508,7 +13434,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13524,7 +13450,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13540,7 +13466,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13555,9 +13481,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13565,7 +13489,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13576,7 +13500,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13585,7 +13509,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13597,7 +13521,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13605,7 +13529,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13701,7 +13625,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13744,7 +13668,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14071,7 +13995,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14087,7 +14011,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14103,7 +14027,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14119,7 +14043,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14135,7 +14059,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14150,9 +14074,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14160,7 +14082,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14171,7 +14093,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14180,7 +14102,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14192,7 +14114,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14200,7 +14122,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14296,7 +14218,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14339,7 +14261,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14666,7 +14588,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14682,7 +14604,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14698,7 +14620,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14714,7 +14636,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14730,7 +14652,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14745,9 +14667,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14755,7 +14675,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14766,7 +14686,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14775,7 +14695,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14787,7 +14707,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14795,7 +14715,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14891,7 +14811,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14934,7 +14854,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15261,7 +15181,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15277,7 +15197,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15293,7 +15213,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15309,7 +15229,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15325,7 +15245,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15340,9 +15260,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15350,7 +15268,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15361,7 +15279,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15370,7 +15288,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15382,7 +15300,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15390,7 +15308,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15486,7 +15404,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15529,7 +15447,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15856,7 +15774,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15872,7 +15790,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15888,7 +15806,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15904,7 +15822,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15920,7 +15838,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15935,9 +15853,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15945,7 +15861,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15956,7 +15872,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15965,7 +15881,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15977,7 +15893,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15985,7 +15901,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16081,7 +15997,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16124,7 +16040,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16507,7 +16423,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16523,7 +16439,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16539,7 +16455,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16555,7 +16471,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16571,7 +16487,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16586,9 +16502,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16596,7 +16510,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16607,7 +16521,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16616,7 +16530,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16628,7 +16542,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16636,7 +16550,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16732,7 +16646,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16775,7 +16689,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17102,7 +17016,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17118,7 +17032,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17134,7 +17048,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17150,7 +17064,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17166,7 +17080,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17181,9 +17095,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17191,7 +17103,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17202,7 +17114,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17211,7 +17123,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17223,7 +17135,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17231,7 +17143,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17327,7 +17239,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17370,7 +17282,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17697,7 +17609,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17713,7 +17625,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17729,7 +17641,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17745,7 +17657,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17761,7 +17673,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17776,9 +17688,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17786,7 +17696,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17797,7 +17707,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17806,7 +17716,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17818,7 +17728,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17826,7 +17736,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17922,7 +17832,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17965,7 +17875,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18292,7 +18202,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18308,7 +18218,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18324,7 +18234,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18340,7 +18250,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18356,7 +18266,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18371,9 +18281,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18381,7 +18289,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18392,7 +18300,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18401,7 +18309,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18413,7 +18321,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18421,7 +18329,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18517,7 +18425,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18560,7 +18468,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18887,7 +18795,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18903,7 +18811,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18919,7 +18827,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18935,7 +18843,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18951,7 +18859,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18966,9 +18874,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18976,7 +18882,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18987,7 +18893,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18996,7 +18902,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19008,7 +18914,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19016,7 +18922,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19112,7 +19018,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19155,7 +19061,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19482,7 +19388,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19498,7 +19404,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19514,7 +19420,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19530,7 +19436,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19546,7 +19452,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19561,9 +19467,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19571,7 +19475,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19582,7 +19486,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19591,7 +19495,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19603,7 +19507,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19611,7 +19515,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19707,7 +19611,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19750,7 +19654,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
